--- a/5/5/4/Activos y pasivos del BCCh 1998 a 2021 - Mensual.xlsx
+++ b/5/5/4/Activos y pasivos del BCCh 1998 a 2021 - Mensual.xlsx
@@ -16209,52 +16209,52 @@
         <v>299</v>
       </c>
       <c r="B284">
-        <v>62901</v>
+        <v>62009</v>
       </c>
       <c r="C284">
-        <v>36559</v>
+        <v>36343</v>
       </c>
       <c r="D284">
-        <v>37195</v>
+        <v>36991</v>
       </c>
       <c r="E284">
-        <v>-636</v>
+        <v>-648</v>
       </c>
       <c r="F284">
-        <v>26342</v>
+        <v>25666</v>
       </c>
       <c r="G284">
-        <v>-35</v>
+        <v>-40</v>
       </c>
       <c r="H284">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="I284">
-        <v>25679</v>
+        <v>25558</v>
       </c>
       <c r="J284">
-        <v>16311</v>
+        <v>16816</v>
       </c>
       <c r="K284">
-        <v>9368</v>
+        <v>8742</v>
       </c>
       <c r="L284">
-        <v>368</v>
+        <v>-193</v>
       </c>
       <c r="M284">
-        <v>62901</v>
+        <v>62009</v>
       </c>
       <c r="N284">
-        <v>29340</v>
+        <v>21743</v>
       </c>
       <c r="O284">
-        <v>14813</v>
+        <v>14804</v>
       </c>
       <c r="P284">
-        <v>14528</v>
+        <v>6939</v>
       </c>
       <c r="Q284">
-        <v>33561</v>
+        <v>40266</v>
       </c>
     </row>
   </sheetData>

--- a/5/5/4/Activos y pasivos del BCCh 1998 a 2021 - Mensual.xlsx
+++ b/5/5/4/Activos y pasivos del BCCh 1998 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="301">
   <si>
     <t>Serie</t>
   </si>
@@ -914,6 +914,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -1271,7 +1274,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q284"/>
+  <dimension ref="A1:Q285"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -16257,6 +16260,59 @@
         <v>40266</v>
       </c>
     </row>
+    <row r="285" spans="1:17">
+      <c r="A285" t="s">
+        <v>300</v>
+      </c>
+      <c r="B285">
+        <v>63472</v>
+      </c>
+      <c r="C285">
+        <v>38053</v>
+      </c>
+      <c r="D285">
+        <v>40576</v>
+      </c>
+      <c r="E285">
+        <v>-2522</v>
+      </c>
+      <c r="F285">
+        <v>25419</v>
+      </c>
+      <c r="G285">
+        <v>-46</v>
+      </c>
+      <c r="H285">
+        <v>343</v>
+      </c>
+      <c r="I285">
+        <v>26159</v>
+      </c>
+      <c r="J285">
+        <v>17829</v>
+      </c>
+      <c r="K285">
+        <v>8331</v>
+      </c>
+      <c r="L285">
+        <v>-1038</v>
+      </c>
+      <c r="M285">
+        <v>63472</v>
+      </c>
+      <c r="N285">
+        <v>28297</v>
+      </c>
+      <c r="O285">
+        <v>14967</v>
+      </c>
+      <c r="P285">
+        <v>13330</v>
+      </c>
+      <c r="Q285">
+        <v>35175</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/5/4/Activos y pasivos del BCCh 1998 a 2021 - Mensual.xlsx
+++ b/5/5/4/Activos y pasivos del BCCh 1998 a 2021 - Mensual.xlsx
@@ -16268,7 +16268,7 @@
         <v>63472</v>
       </c>
       <c r="C285">
-        <v>38053</v>
+        <v>38054</v>
       </c>
       <c r="D285">
         <v>40576</v>
@@ -16277,25 +16277,25 @@
         <v>-2522</v>
       </c>
       <c r="F285">
-        <v>25419</v>
+        <v>25418</v>
       </c>
       <c r="G285">
-        <v>-46</v>
+        <v>-43</v>
       </c>
       <c r="H285">
         <v>343</v>
       </c>
       <c r="I285">
-        <v>26159</v>
+        <v>26163</v>
       </c>
       <c r="J285">
         <v>17829</v>
       </c>
       <c r="K285">
-        <v>8331</v>
+        <v>8334</v>
       </c>
       <c r="L285">
-        <v>-1038</v>
+        <v>-1044</v>
       </c>
       <c r="M285">
         <v>63472</v>

--- a/5/5/4/Activos y pasivos del BCCh 1998 a 2021 - Mensual.xlsx
+++ b/5/5/4/Activos y pasivos del BCCh 1998 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="302">
   <si>
     <t>Serie</t>
   </si>
@@ -917,6 +917,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -1274,7 +1277,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q285"/>
+  <dimension ref="A1:Q286"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -16313,6 +16316,59 @@
         <v>35175</v>
       </c>
     </row>
+    <row r="286" spans="1:17">
+      <c r="A286" t="s">
+        <v>301</v>
+      </c>
+      <c r="B286">
+        <v>62858</v>
+      </c>
+      <c r="C286">
+        <v>40268</v>
+      </c>
+      <c r="D286">
+        <v>42839</v>
+      </c>
+      <c r="E286">
+        <v>-2571</v>
+      </c>
+      <c r="F286">
+        <v>22590</v>
+      </c>
+      <c r="G286">
+        <v>-39</v>
+      </c>
+      <c r="H286">
+        <v>345</v>
+      </c>
+      <c r="I286">
+        <v>24192</v>
+      </c>
+      <c r="J286">
+        <v>18862</v>
+      </c>
+      <c r="K286">
+        <v>5330</v>
+      </c>
+      <c r="L286">
+        <v>-1907</v>
+      </c>
+      <c r="M286">
+        <v>62858</v>
+      </c>
+      <c r="N286">
+        <v>23504</v>
+      </c>
+      <c r="O286">
+        <v>15093</v>
+      </c>
+      <c r="P286">
+        <v>8412</v>
+      </c>
+      <c r="Q286">
+        <v>39354</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
